--- a/Examples/Technical Indicators.xlsx
+++ b/Examples/Technical Indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriya\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\XLQuote.com\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ED762C-E953-4BB7-BC5F-2A12D17832CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8F0412-D6D7-4DCC-8D41-DB7E70982CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="29000" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical Indicators" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -342,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,7 +393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -488,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,16 +653,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14.59765625" style="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -660,7 +671,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -684,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,10 +707,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -723,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -735,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -747,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -759,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -771,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -783,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -795,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -807,7 +818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -819,7 +830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -831,7 +842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -843,7 +854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -855,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -875,7 +886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -909,7 +920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -943,7 +954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -983,7 +994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1023,7 +1034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1063,7 +1074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
